--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01-DataScienceProjects\Credit-Risk-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01-DataScienceProjects\Credit-Risk-Analysis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{933CABE9-3F3E-4A12-A26B-974438D9486E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C64CA-4085-4CEF-B97F-235281EF52CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FB45896B-50B0-4EC2-A1AE-EFB050EC1DF6}"/>
+    <workbookView xWindow="5115" yWindow="2925" windowWidth="15375" windowHeight="7875" xr2:uid="{FB45896B-50B0-4EC2-A1AE-EFB050EC1DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Accuracy</t>
   </si>
@@ -57,21 +57,6 @@
     <t>Balanced Accuracy</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7775          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.755           </t>
-  </si>
-  <si>
     <t xml:space="preserve">0.9091          </t>
   </si>
   <si>
@@ -183,21 +168,6 @@
     <t>0.7221</t>
   </si>
   <si>
-    <t>0.7330</t>
-  </si>
-  <si>
-    <t>0.7495</t>
-  </si>
-  <si>
-    <t>0.6707</t>
-  </si>
-  <si>
-    <t>0.6719</t>
-  </si>
-  <si>
-    <t>0.6790</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -219,7 +189,34 @@
     <t>Neural Network</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7371 </t>
+    <t>0.6826</t>
+  </si>
+  <si>
+    <t>0.6780</t>
+  </si>
+  <si>
+    <t>0.7250</t>
+  </si>
+  <si>
+    <t>0.6569</t>
+  </si>
+  <si>
+    <t>0.7275</t>
+  </si>
+  <si>
+    <t>0.6401</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.7500</t>
+  </si>
+  <si>
+    <t>0.7325</t>
+  </si>
+  <si>
+    <t>0.7508</t>
   </si>
 </sst>
 </file>
@@ -603,7 +600,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +615,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -638,22 +635,22 @@
     </row>
     <row r="3" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -661,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -681,19 +678,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -701,19 +698,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -721,19 +718,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -741,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -761,19 +758,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -781,19 +778,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -801,19 +798,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -821,39 +818,39 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
